--- a/単体テスト仕様書.xlsx
+++ b/単体テスト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\亢凯\Desktop\team PG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akemin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B04A3D-F71B-4A31-9134-E3D9C3C98784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BAAC9-FBA9-44B1-9BA4-E8C831C7A2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="888" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー登録" sheetId="166" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
   <si>
     <t>単体テスト仕様書</t>
     <rPh sb="0" eb="2">
@@ -160,15 +160,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>正しい管理者ID（）正しい管理者パスワード()でログインボタンを押下</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>管理者登録画面に遷移</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>正しいユーザーID()＆正しいユーザーパスワード()を入力してログインボタンを押下</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -176,55 +168,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>間違った管理者ID()と正しい管理者パスワード()でログインボタンを押下</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ID又はパスワードが間違っています」というエラー文表示。画面遷移せずログイン画面に留まる</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>間違ったユーザーID()と正しいユーザーパスワード()でログインボタンを押下</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IDが空白で正しい管理者パスワード()に入力してログインボタンを押下</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IDが空白で正しいユーザーパスワード()に入力してログインボタンを押下</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>パスワードの入力値テスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>正しい管理者ID()と間違った管理者パスワード()を入力してでログインボタンを押下</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>正しいユーザーID()と間違ったユーザーパスワード()を入力してでログインボタンを押下</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IDに正しい管理者IDの入力()がありパスワードが空白の状態でログインボタンを押下</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IDに正しいユーザーIDの入力()がありパスワードが空白の状態でログインボタンを押下</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IDとパスワードの入力値テスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IDとパスワードが空白の状態でログインボタン押下</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>間違ったユーザーID()と間違ったユーザーパスワード()でログインボタンを押下</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -245,10 +193,6 @@
   </si>
   <si>
     <t>商品個数の変更するテキストボックス</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>テキストボックス要件を満たす通常の文字列を入力します</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -273,10 +217,6 @@
   </si>
   <si>
     <t>cartの内容をお気に入り商品になるbutton</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>　レジページ画面へ遷移させるためbutton</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -336,10 +276,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">		　メールアドレスを入力するテキストボックス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>キャラクタ長さチェック、maxlenはテキストボックスの最長入力長</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -360,15 +296,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>　ユーザー名を入力するテキストボックス</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>パスワードを入力するテキストボックス</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>password確認</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -401,10 +329,6 @@
   </si>
   <si>
     <t>Logobutton</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>　ホームページ画面へ遷移</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -553,6 +477,90 @@
   </si>
   <si>
     <t>お気に入りの内容をカートに入れる</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>　正しい管理者ID（）正しい管理者パスワード()でログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　正しいユーザーID()＆正しいユーザーパスワード()を入力してログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　間違った管理者ID()と正しい管理者パスワード()でログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　間違ったユーザーID()と正しいユーザーパスワード()でログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　IDが空白で正しい管理者パスワード()に入力してログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　IDが空白で正しいユーザーパスワード()に入力してログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　正しい管理者ID()と間違った管理者パスワード()を入力してでログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　正しいユーザーID()と間違ったユーザーパスワード()を入力してでログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　IDに正しい管理者IDの入力()がありパスワードが空白の状態でログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　IDに正しいユーザーIDの入力()がありパスワードが空白の状態でログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　IDとパスワードの入力値テスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　IDとパスワードが空白の状態でログインボタン押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　間違ったユーザーID()と間違ったユーザーパスワード()でログインボタンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">		メールアドレスを入力するテキストボックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　テキストボックス要件を満たす通常の文字列を入力します</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>　maxlenの長さを入力する文字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>　maxlen+1長さの文字を入力</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザー名を入力するテキストボックス</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>　password確認</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ホームページ画面へ遷移</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>レジページ画面へ遷移させるためbutton</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +752,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,10 +808,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,17 +838,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準_生産計画ED書" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_東京理科大DBレイアウト" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準_生産計画ED書" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -921,6 +935,815 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9055578B-A6B5-48B8-B5D2-9ABE315C2B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3185160"/>
+          <a:ext cx="4556760" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>管理者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と管理者パスワードの具体的な値を決めてください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>その他の書き方は、問題ないと思います。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BBB4A5C-8EF4-40A3-8704-6F28C80C6D80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1615440" y="3680460"/>
+          <a:ext cx="7498080" cy="1623060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検証内容が雑すぎます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>通常の文字列とは何か具体的に記載してください。入力して保存はちゃんと保存されるのかどうかも記載してください</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>maxlen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>とは何の文字を何文字書いたものが最長なのかわかりません。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>maxlent+1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>についても何の文字を何文字書いたか具体的にお願いします。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>例）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>maxlen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の長さである</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字（一二三四五六七八九十一二三四五）を記載</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>その他の部分も具体的な値がわかららず、他の人がこの仕様書を見てテストができませんで、きちんと値を書くようにしてください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD53239-CBFD-0BD3-283B-FAC4F9C66AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9212580" y="487680"/>
+          <a:ext cx="3048000" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>maxlen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>長→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>maxlen</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の長さの文字を入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力できないのに保存は、おかしいのでは？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>906780</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D147CA61-5FE6-D826-1800-237F4BB604A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8747760" y="819150"/>
+          <a:ext cx="464820" cy="499110"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA730370-048E-44F4-9BF3-22360358CD91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9227820" y="1242060"/>
+          <a:ext cx="3048000" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>対応するプロンプトとは何でしょうか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→具体的にお願いします。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>853440</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3004AF-8F06-EB31-E2D4-C8FD3327D9C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8694420" y="1402080"/>
+          <a:ext cx="533400" cy="68580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E920F9-4F55-1EFA-6D06-1FB31CEA7C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9235440" y="1790700"/>
+          <a:ext cx="2773680" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力できないというのは、何の何文字目が入力できないのでしょうか。意味がわからないです。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8983AAD4-8BB9-BFAA-28C0-AAAFBA44B0ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8100060" y="2796540"/>
+          <a:ext cx="1104900" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190C6D0F-6143-4296-8F8D-3161BCAF83A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9204960" y="2712720"/>
+          <a:ext cx="2773680" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>具体的なエラー文あるいは、メッセージを記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01EA4572-AF21-4911-B2AD-74B9005364B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1653540" y="2263140"/>
+          <a:ext cx="7498080" cy="1623060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テスト項目及び検証内容が雑すぎます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テスト項目は、もう少し具体的にお願いします。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>例）数値である</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>もう少し、書き方を工夫してください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1188,18 +2011,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7:Q7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="9" customWidth="1"/>
-    <col min="3" max="6" width="7.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" style="9" customWidth="1"/>
-    <col min="8" max="13" width="7.1796875" style="5" customWidth="1"/>
-    <col min="14" max="17" width="10.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="9" customWidth="1"/>
+    <col min="3" max="6" width="7.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.77734375" style="9" customWidth="1"/>
+    <col min="8" max="12" width="7.21875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="47.77734375" style="5" customWidth="1"/>
+    <col min="14" max="17" width="10.5546875" style="5" customWidth="1"/>
     <col min="18" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
@@ -1284,18 +2108,18 @@
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1305,45 +2129,45 @@
       <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
     </row>
-    <row r="6" spans="1:17" ht="11" customHeight="1">
+    <row r="6" spans="1:17" ht="10.95" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="17"/>
@@ -1354,21 +2178,21 @@
         <v>1</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="17"/>
@@ -1379,21 +2203,21 @@
         <v>2</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="17"/>
@@ -1404,21 +2228,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="17"/>
@@ -1429,21 +2253,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="C10" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
@@ -1454,21 +2278,21 @@
         <v>5</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="C11" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="17"/>
@@ -1479,21 +2303,21 @@
         <v>6</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="C12" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="17"/>
@@ -1502,19 +2326,19 @@
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="C13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="17"/>
@@ -1525,21 +2349,21 @@
         <v>7</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="C14" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="17"/>
@@ -1550,21 +2374,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="C15" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
@@ -1575,21 +2399,21 @@
         <v>9</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="C16" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
@@ -1600,21 +2424,21 @@
         <v>10</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="C17" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
@@ -1623,19 +2447,19 @@
     <row r="18" spans="1:17" ht="11.25" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="C18" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
@@ -1646,21 +2470,21 @@
         <v>11</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="C19" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
@@ -1671,21 +2495,21 @@
         <v>12</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="C20" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
@@ -2301,6 +3125,134 @@
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="H52:M52"/>
     <mergeCell ref="P52:Q52"/>
@@ -2325,139 +3277,12 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="H48:M48"/>
     <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2466,17 +3291,18 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C21" sqref="C21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="9" customWidth="1"/>
-    <col min="3" max="6" width="7.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" style="9" customWidth="1"/>
-    <col min="8" max="13" width="7.1796875" style="5" customWidth="1"/>
-    <col min="14" max="17" width="10.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="9" customWidth="1"/>
+    <col min="3" max="6" width="7.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="9" customWidth="1"/>
+    <col min="8" max="12" width="7.21875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="5" customWidth="1"/>
+    <col min="14" max="17" width="10.5546875" style="5" customWidth="1"/>
     <col min="18" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
@@ -2561,18 +3387,18 @@
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2582,24 +3408,24 @@
       <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="C5" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="21"/>
@@ -2610,21 +3436,21 @@
         <v>1</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="C6" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="17"/>
@@ -2633,19 +3459,19 @@
     <row r="7" spans="1:17" ht="11.25" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="17"/>
@@ -2656,21 +3482,21 @@
         <v>2</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="17"/>
@@ -2681,21 +3507,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="17"/>
@@ -2706,21 +3532,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="C10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
@@ -2729,19 +3555,19 @@
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="C11" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="17"/>
@@ -2752,21 +3578,21 @@
         <v>5</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="C12" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="17"/>
@@ -2777,21 +3603,21 @@
         <v>6</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="C13" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="17"/>
@@ -2802,21 +3628,21 @@
         <v>7</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="C14" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="17"/>
@@ -2825,19 +3651,19 @@
     <row r="15" spans="1:17" ht="11.25" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="C15" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
@@ -2848,21 +3674,21 @@
         <v>8</v>
       </c>
       <c r="B16" s="15"/>
-      <c r="C16" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="C16" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
@@ -2873,21 +3699,21 @@
         <v>9</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="C17" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
@@ -2898,21 +3724,21 @@
         <v>10</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="C18" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
@@ -2923,21 +3749,21 @@
         <v>11</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="C19" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
@@ -2948,21 +3774,21 @@
         <v>12</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="C20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
@@ -2973,21 +3799,21 @@
         <v>13</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="C21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="17"/>
@@ -2998,21 +3824,21 @@
         <v>14</v>
       </c>
       <c r="B22" s="15"/>
-      <c r="C22" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="C22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="17"/>
@@ -3023,21 +3849,21 @@
         <v>15</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
+      <c r="C23" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
       <c r="P23" s="17"/>
@@ -3048,21 +3874,21 @@
         <v>16</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
+      <c r="C24" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="17"/>
@@ -3602,26 +4428,126 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="P11:Q11"/>
@@ -3634,130 +4560,31 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3766,17 +4593,17 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:G9"/>
+      <selection activeCell="P12" sqref="P12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="9" customWidth="1"/>
-    <col min="3" max="6" width="7.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" style="9" customWidth="1"/>
-    <col min="8" max="13" width="7.1796875" style="5" customWidth="1"/>
-    <col min="14" max="17" width="10.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="9" customWidth="1"/>
+    <col min="3" max="6" width="7.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" style="9" customWidth="1"/>
+    <col min="8" max="13" width="7.21875" style="5" customWidth="1"/>
+    <col min="14" max="17" width="10.5546875" style="5" customWidth="1"/>
     <col min="18" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
@@ -3861,18 +4688,18 @@
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3882,28 +4709,28 @@
       <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1">
       <c r="A5" s="14">
         <v>1</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="C5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="21"/>
@@ -3914,21 +4741,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="C6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="17"/>
@@ -3937,19 +4764,19 @@
     <row r="7" spans="1:17" ht="11.25" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="17"/>
@@ -3960,21 +4787,21 @@
         <v>3</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="17"/>
@@ -3985,21 +4812,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="17"/>
@@ -4010,21 +4837,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="C10" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
@@ -4035,21 +4862,21 @@
         <v>6</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="C11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="17"/>
@@ -4060,21 +4887,21 @@
         <v>7</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="C12" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="17"/>
@@ -4085,21 +4912,21 @@
         <v>8</v>
       </c>
       <c r="B13" s="15"/>
-      <c r="C13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="C13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="17"/>
@@ -4848,26 +5675,126 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="P11:Q11"/>
@@ -4880,129 +5807,30 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5011,17 +5839,17 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H29" sqref="H29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="9" customWidth="1"/>
-    <col min="3" max="6" width="7.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" style="9" customWidth="1"/>
-    <col min="8" max="13" width="7.1796875" style="5" customWidth="1"/>
-    <col min="14" max="17" width="10.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="9" customWidth="1"/>
+    <col min="3" max="6" width="7.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" style="9" customWidth="1"/>
+    <col min="8" max="13" width="7.21875" style="5" customWidth="1"/>
+    <col min="14" max="17" width="10.5546875" style="5" customWidth="1"/>
     <col min="18" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
@@ -5106,18 +5934,18 @@
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
@@ -5127,28 +5955,28 @@
       <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1">
       <c r="A5" s="14">
         <v>1</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+      <c r="C5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
       <c r="P5" s="21"/>
@@ -5159,21 +5987,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="C6" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="17"/>
@@ -5182,19 +6010,19 @@
     <row r="7" spans="1:17" ht="11.25" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="17"/>
@@ -5205,21 +6033,21 @@
         <v>3</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="C8" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="17"/>
@@ -5230,21 +6058,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="C9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="17"/>
@@ -5255,21 +6083,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="15"/>
-      <c r="C10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="C10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
@@ -5278,19 +6106,19 @@
     <row r="11" spans="1:17" ht="11.25" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="C11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="17"/>
@@ -5301,21 +6129,21 @@
         <v>6</v>
       </c>
       <c r="B12" s="15"/>
-      <c r="C12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="C12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="17"/>
@@ -5324,19 +6152,19 @@
     <row r="13" spans="1:17" ht="11.25" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="C13" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="17"/>
@@ -5347,21 +6175,21 @@
         <v>7</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="C14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
       <c r="P14" s="17"/>
@@ -5372,21 +6200,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="15"/>
-      <c r="C15" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="C15" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
@@ -5395,19 +6223,19 @@
     <row r="16" spans="1:17" ht="11.25" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="C16" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
@@ -5418,21 +6246,21 @@
         <v>9</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="C17" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
@@ -5443,21 +6271,21 @@
         <v>10</v>
       </c>
       <c r="B18" s="15"/>
-      <c r="C18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="C18" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
@@ -5468,21 +6296,21 @@
         <v>11</v>
       </c>
       <c r="B19" s="15"/>
-      <c r="C19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="C19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
@@ -5493,21 +6321,21 @@
         <v>12</v>
       </c>
       <c r="B20" s="15"/>
-      <c r="C20" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
+      <c r="C20" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
@@ -5518,21 +6346,21 @@
         <v>13</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="C21" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="17"/>
@@ -6129,26 +6957,126 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="P11:Q11"/>
@@ -6161,126 +7089,26 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6297,12 +7125,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="9" customWidth="1"/>
-    <col min="3" max="6" width="7.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" style="9" customWidth="1"/>
-    <col min="8" max="13" width="7.1796875" style="5" customWidth="1"/>
-    <col min="14" max="17" width="10.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="9" customWidth="1"/>
+    <col min="3" max="6" width="7.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" style="9" customWidth="1"/>
+    <col min="8" max="13" width="7.21875" style="5" customWidth="1"/>
+    <col min="14" max="17" width="10.5546875" style="5" customWidth="1"/>
     <col min="18" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
@@ -6387,18 +7215,18 @@
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
@@ -6408,7 +7236,7 @@
       <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1">
       <c r="A5" s="14">
@@ -6416,14 +7244,14 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="21" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -6441,14 +7269,14 @@
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -6466,14 +7294,14 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -7342,26 +8170,126 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="P11:Q11"/>
@@ -7374,126 +8302,26 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7510,12 +8338,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="9" customWidth="1"/>
-    <col min="3" max="6" width="7.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" style="9" customWidth="1"/>
-    <col min="8" max="13" width="7.1796875" style="5" customWidth="1"/>
-    <col min="14" max="17" width="10.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="9" customWidth="1"/>
+    <col min="3" max="6" width="7.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" style="9" customWidth="1"/>
+    <col min="8" max="13" width="7.21875" style="5" customWidth="1"/>
+    <col min="14" max="17" width="10.5546875" style="5" customWidth="1"/>
     <col min="18" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
@@ -7600,18 +8428,18 @@
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
@@ -7621,7 +8449,7 @@
       <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1">
       <c r="A5" s="14">
@@ -7629,14 +8457,14 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="21" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -7654,14 +8482,14 @@
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -7679,14 +8507,14 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -7704,14 +8532,14 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -8561,26 +9389,126 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="P11:Q11"/>
@@ -8593,126 +9521,26 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8729,12 +9557,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="9" customWidth="1"/>
-    <col min="3" max="6" width="7.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" style="9" customWidth="1"/>
-    <col min="8" max="13" width="7.1796875" style="5" customWidth="1"/>
-    <col min="14" max="17" width="10.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="9" customWidth="1"/>
+    <col min="3" max="6" width="7.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" style="9" customWidth="1"/>
+    <col min="8" max="13" width="7.21875" style="5" customWidth="1"/>
+    <col min="14" max="17" width="10.5546875" style="5" customWidth="1"/>
     <col min="18" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
@@ -8819,18 +9647,18 @@
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
@@ -8840,7 +9668,7 @@
       <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1">
       <c r="A5" s="14">
@@ -8848,14 +9676,14 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="21" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -8873,14 +9701,14 @@
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -8898,14 +9726,14 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -8923,14 +9751,14 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -8948,14 +9776,14 @@
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -8973,14 +9801,14 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -9792,26 +10620,126 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="P11:Q11"/>
@@ -9824,126 +10752,26 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9954,18 +10782,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2E2354-E820-4BBC-96D4-0976EB1A369F}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="9" customWidth="1"/>
-    <col min="3" max="6" width="7.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.1796875" style="9" customWidth="1"/>
-    <col min="8" max="13" width="7.1796875" style="5" customWidth="1"/>
-    <col min="14" max="17" width="10.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="9" customWidth="1"/>
+    <col min="3" max="6" width="7.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" style="9" customWidth="1"/>
+    <col min="8" max="13" width="7.21875" style="5" customWidth="1"/>
+    <col min="14" max="17" width="10.5546875" style="5" customWidth="1"/>
     <col min="18" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
@@ -10050,18 +10878,18 @@
       <c r="C4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
@@ -10071,7 +10899,7 @@
       <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="11.25" customHeight="1">
       <c r="A5" s="14">
@@ -10079,14 +10907,14 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="21" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -10102,7 +10930,7 @@
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="17" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -10125,14 +10953,14 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -10150,14 +10978,14 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -10175,14 +11003,14 @@
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="17" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -10200,14 +11028,14 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="17" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -10225,14 +11053,14 @@
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="17" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -11025,26 +11853,126 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="P11:Q11"/>
@@ -11057,126 +11985,26 @@
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="H10:M10"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
